--- a/结果/分类结果.xlsx
+++ b/结果/分类结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E485A-B8C2-49B5-B42D-37FA7129680A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF3A8F9-E758-4001-918A-E656F371FB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="0" windowWidth="19668" windowHeight="12360" activeTab="3" xr2:uid="{FF18A87A-EDBD-4978-932B-09B7BEC375AB}"/>
+    <workbookView xWindow="1008" yWindow="648" windowWidth="19668" windowHeight="12360" activeTab="3" xr2:uid="{FF18A87A-EDBD-4978-932B-09B7BEC375AB}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
@@ -309,12 +309,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,11 +337,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -59633,6 +59642,61 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7506D5E0-D386-49D7-8C3C-50C1F0DF75F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8779328" y="7946571"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -64053,8 +64117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E046D-2A4E-44AA-BD62-2184337D6835}">
   <dimension ref="D1:AF181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -64197,7 +64261,7 @@
       <c r="M64" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64" s="2">
         <v>1</v>
       </c>
       <c r="O64" s="1">
@@ -64223,7 +64287,7 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0.86333000000000004</v>
       </c>
       <c r="G65" s="1">
@@ -64235,7 +64299,7 @@
       <c r="M65" t="s">
         <v>8</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65" s="2">
         <v>0.86494000000000004</v>
       </c>
       <c r="O65" s="1">
@@ -64247,7 +64311,7 @@
       <c r="U65" t="s">
         <v>8</v>
       </c>
-      <c r="V65" s="1">
+      <c r="V65" s="2">
         <v>0.86233000000000004</v>
       </c>
       <c r="W65" s="1">
@@ -64261,7 +64325,7 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0.94499999999999995</v>
       </c>
       <c r="G66" s="1">
@@ -64273,7 +64337,7 @@
       <c r="M66" t="s">
         <v>9</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="2">
         <v>0.94496000000000002</v>
       </c>
       <c r="O66" s="1">
@@ -64311,7 +64375,7 @@
       <c r="M67" t="s">
         <v>10</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" s="2">
         <v>0.98594099999999996</v>
       </c>
       <c r="O67" s="1">
@@ -64349,7 +64413,7 @@
       <c r="M68" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68" s="2">
         <v>0.992452</v>
       </c>
       <c r="O68" s="1">
@@ -64387,7 +64451,7 @@
       <c r="M69" t="s">
         <v>12</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="2">
         <v>1</v>
       </c>
       <c r="O69" s="1">
@@ -64437,7 +64501,7 @@
       <c r="U70" t="s">
         <v>37</v>
       </c>
-      <c r="V70" s="1">
+      <c r="V70" s="2">
         <v>0.978433</v>
       </c>
       <c r="W70" s="1">
@@ -64451,7 +64515,7 @@
       <c r="E71" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0.95666700000000005</v>
       </c>
       <c r="G71" s="1">
@@ -64475,7 +64539,7 @@
       <c r="U71" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="1">
+      <c r="V71" s="2">
         <v>0.97509800000000002</v>
       </c>
       <c r="W71" s="1">
@@ -64489,7 +64553,7 @@
       <c r="E72" t="s">
         <v>39</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>0.89583299999999999</v>
       </c>
       <c r="G72" s="1">
@@ -64513,7 +64577,7 @@
       <c r="U72" t="s">
         <v>39</v>
       </c>
-      <c r="V72" s="1">
+      <c r="V72" s="2">
         <v>0.92921799999999999</v>
       </c>
       <c r="W72" s="1">
@@ -64527,7 +64591,7 @@
       <c r="E73" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>0.79166700000000001</v>
       </c>
       <c r="G73" s="1">
@@ -64551,7 +64615,7 @@
       <c r="U73" t="s">
         <v>40</v>
       </c>
-      <c r="V73" s="1">
+      <c r="V73" s="2">
         <v>0.87834199999999996</v>
       </c>
       <c r="W73" s="1">
@@ -64634,7 +64698,7 @@
       <c r="M100" t="s">
         <v>13</v>
       </c>
-      <c r="N100" s="1">
+      <c r="N100" s="2">
         <v>0.95821699999999999</v>
       </c>
       <c r="O100" s="1">
@@ -64660,7 +64724,7 @@
       <c r="E101" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>0.81833299999999998</v>
       </c>
       <c r="G101" s="1">
@@ -64698,7 +64762,7 @@
       <c r="E102" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
         <v>0.90625</v>
       </c>
       <c r="G102" s="1">
@@ -64722,7 +64786,7 @@
       <c r="U102" t="s">
         <v>15</v>
       </c>
-      <c r="V102" s="1">
+      <c r="V102" s="2">
         <v>0.96895600000000004</v>
       </c>
       <c r="W102" s="1">
@@ -64748,7 +64812,7 @@
       <c r="M103" t="s">
         <v>16</v>
       </c>
-      <c r="N103" s="1">
+      <c r="N103" s="2">
         <v>0.83811800000000003</v>
       </c>
       <c r="O103" s="1">
@@ -64786,7 +64850,7 @@
       <c r="M104" t="s">
         <v>17</v>
       </c>
-      <c r="N104" s="1">
+      <c r="N104" s="2">
         <v>0.91949999999999998</v>
       </c>
       <c r="O104" s="1">
@@ -64824,7 +64888,7 @@
       <c r="M105" t="s">
         <v>18</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N105" s="2">
         <v>0.99846599999999996</v>
       </c>
       <c r="O105" s="1">
@@ -64874,7 +64938,7 @@
       <c r="U106" t="s">
         <v>42</v>
       </c>
-      <c r="V106" s="1">
+      <c r="V106" s="2">
         <v>0.99512100000000003</v>
       </c>
       <c r="W106" s="1">
@@ -64888,7 +64952,7 @@
       <c r="E107" t="s">
         <v>43</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>0.91541700000000004</v>
       </c>
       <c r="G107" s="1">
@@ -64912,7 +64976,7 @@
       <c r="U107" t="s">
         <v>43</v>
       </c>
-      <c r="V107" s="1">
+      <c r="V107" s="2">
         <v>0.95682199999999995</v>
       </c>
       <c r="W107" s="1">
@@ -64926,7 +64990,7 @@
       <c r="E108" t="s">
         <v>44</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>0.90375000000000005</v>
       </c>
       <c r="G108" s="1">
@@ -64938,7 +65002,7 @@
       <c r="M108" t="s">
         <v>44</v>
       </c>
-      <c r="N108" s="1">
+      <c r="N108" s="2">
         <v>0.86137300000000006</v>
       </c>
       <c r="O108" s="1">
@@ -64950,7 +65014,7 @@
       <c r="U108" t="s">
         <v>44</v>
       </c>
-      <c r="V108" s="1">
+      <c r="V108" s="2">
         <v>0.945716</v>
       </c>
       <c r="W108" s="1">
@@ -64964,7 +65028,7 @@
       <c r="E109" t="s">
         <v>45</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>0.66125</v>
       </c>
       <c r="G109" s="1">
@@ -64988,7 +65052,7 @@
       <c r="U109" t="s">
         <v>45</v>
       </c>
-      <c r="V109" s="1">
+      <c r="V109" s="2">
         <v>0.85624400000000001</v>
       </c>
       <c r="W109" s="1">
@@ -65071,7 +65135,7 @@
       <c r="M136" t="s">
         <v>22</v>
       </c>
-      <c r="N136" s="1">
+      <c r="N136" s="2">
         <v>0.98888100000000001</v>
       </c>
       <c r="O136" s="1">
@@ -65097,7 +65161,7 @@
       <c r="E137" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="2">
         <v>0.88249999999999995</v>
       </c>
       <c r="G137" s="1">
@@ -65109,7 +65173,7 @@
       <c r="M137" t="s">
         <v>23</v>
       </c>
-      <c r="N137" s="1">
+      <c r="N137" s="2">
         <v>0.93701299999999998</v>
       </c>
       <c r="O137" s="1">
@@ -65135,7 +65199,7 @@
       <c r="E138" t="s">
         <v>24</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="2">
         <v>0.969167</v>
       </c>
       <c r="G138" s="1">
@@ -65147,7 +65211,7 @@
       <c r="M138" t="s">
         <v>24</v>
       </c>
-      <c r="N138" s="1">
+      <c r="N138" s="2">
         <v>0.97090600000000005</v>
       </c>
       <c r="O138" s="1">
@@ -65185,7 +65249,7 @@
       <c r="M139" t="s">
         <v>25</v>
       </c>
-      <c r="N139" s="1">
+      <c r="N139" s="2">
         <v>0.98504100000000006</v>
       </c>
       <c r="O139" s="1">
@@ -65261,7 +65325,7 @@
       <c r="M141" t="s">
         <v>27</v>
       </c>
-      <c r="N141" s="1">
+      <c r="N141" s="2">
         <v>0.96243000000000001</v>
       </c>
       <c r="O141" s="1">
@@ -65287,7 +65351,7 @@
       <c r="E142" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="2">
         <v>0.69125000000000003</v>
       </c>
       <c r="G142" s="1">
@@ -65311,7 +65375,7 @@
       <c r="U142" t="s">
         <v>47</v>
       </c>
-      <c r="V142" s="1">
+      <c r="V142" s="2">
         <v>0.75724599999999997</v>
       </c>
       <c r="W142" s="1">
@@ -65325,7 +65389,7 @@
       <c r="E143" t="s">
         <v>48</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="2">
         <v>0.97</v>
       </c>
       <c r="G143" s="1">
@@ -65349,7 +65413,7 @@
       <c r="U143" t="s">
         <v>48</v>
       </c>
-      <c r="V143" s="1">
+      <c r="V143" s="2">
         <v>0.99028099999999997</v>
       </c>
       <c r="W143" s="1">
@@ -65387,7 +65451,7 @@
       <c r="U144" t="s">
         <v>49</v>
       </c>
-      <c r="V144" s="1">
+      <c r="V144" s="2">
         <v>0.96037399999999995</v>
       </c>
       <c r="W144" s="1">
@@ -65401,7 +65465,7 @@
       <c r="E145" t="s">
         <v>50</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="2">
         <v>0.76666699999999999</v>
       </c>
       <c r="G145" s="1">
@@ -65425,7 +65489,7 @@
       <c r="U145" t="s">
         <v>50</v>
       </c>
-      <c r="V145" s="1">
+      <c r="V145" s="2">
         <v>0.87132100000000001</v>
       </c>
       <c r="W145" s="1">
@@ -65546,7 +65610,7 @@
       <c r="M173" t="s">
         <v>31</v>
       </c>
-      <c r="N173" s="1">
+      <c r="N173" s="2">
         <v>0.90387700000000004</v>
       </c>
       <c r="O173" s="1">
@@ -65558,7 +65622,7 @@
       <c r="U173" t="s">
         <v>31</v>
       </c>
-      <c r="V173" s="1">
+      <c r="V173" s="2">
         <v>0.89727999999999997</v>
       </c>
       <c r="W173" s="1">
@@ -65572,7 +65636,7 @@
       <c r="E174" t="s">
         <v>32</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="2">
         <v>0.93458300000000005</v>
       </c>
       <c r="G174" s="1">
@@ -65584,7 +65648,7 @@
       <c r="M174" t="s">
         <v>32</v>
       </c>
-      <c r="N174" s="1">
+      <c r="N174" s="2">
         <v>0.96057400000000004</v>
       </c>
       <c r="O174" s="1">
@@ -65622,7 +65686,7 @@
       <c r="M175" t="s">
         <v>33</v>
       </c>
-      <c r="N175" s="1">
+      <c r="N175" s="2">
         <v>0.97550499999999996</v>
       </c>
       <c r="O175" s="1">
@@ -65660,7 +65724,7 @@
       <c r="M176" t="s">
         <v>34</v>
       </c>
-      <c r="N176" s="1">
+      <c r="N176" s="2">
         <v>0.94450999999999996</v>
       </c>
       <c r="O176" s="1">
@@ -65724,7 +65788,7 @@
       <c r="E178" t="s">
         <v>52</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178" s="2">
         <v>0.64749999999999996</v>
       </c>
       <c r="G178" s="1">
@@ -65736,7 +65800,7 @@
       <c r="M178" t="s">
         <v>52</v>
       </c>
-      <c r="N178" s="1">
+      <c r="N178" s="2">
         <v>0.79332599999999998</v>
       </c>
       <c r="O178" s="1">
@@ -65762,7 +65826,7 @@
       <c r="E179" t="s">
         <v>53</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="2">
         <v>0.88124999999999998</v>
       </c>
       <c r="G179" s="1">
@@ -65774,7 +65838,7 @@
       <c r="M179" t="s">
         <v>53</v>
       </c>
-      <c r="N179" s="1">
+      <c r="N179" s="2">
         <v>0.91369900000000004</v>
       </c>
       <c r="O179" s="1">
@@ -65786,7 +65850,7 @@
       <c r="U179" t="s">
         <v>53</v>
       </c>
-      <c r="V179" s="1">
+      <c r="V179" s="2">
         <v>0.849248</v>
       </c>
       <c r="W179" s="1">
@@ -65800,7 +65864,7 @@
       <c r="E180" t="s">
         <v>54</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180" s="2">
         <v>0.79791699999999999</v>
       </c>
       <c r="G180" s="1">
@@ -65812,7 +65876,7 @@
       <c r="M180" t="s">
         <v>54</v>
       </c>
-      <c r="N180" s="1">
+      <c r="N180" s="2">
         <v>0.89210500000000004</v>
       </c>
       <c r="O180" s="1">
@@ -65838,7 +65902,7 @@
       <c r="E181" t="s">
         <v>55</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="2">
         <v>0.63958300000000001</v>
       </c>
       <c r="G181" s="1">
@@ -65850,7 +65914,7 @@
       <c r="M181" t="s">
         <v>55</v>
       </c>
-      <c r="N181" s="1">
+      <c r="N181" s="2">
         <v>0.64088000000000001</v>
       </c>
       <c r="O181" s="1">
@@ -65862,7 +65926,7 @@
       <c r="U181" t="s">
         <v>55</v>
       </c>
-      <c r="V181" s="1">
+      <c r="V181" s="2">
         <v>0.64019300000000001</v>
       </c>
       <c r="W181" s="1">

--- a/结果/分类结果.xlsx
+++ b/结果/分类结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF3A8F9-E758-4001-918A-E656F371FB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316F64C-D60B-4AD0-9DC1-D23C1B5432E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="648" windowWidth="19668" windowHeight="12360" activeTab="3" xr2:uid="{FF18A87A-EDBD-4978-932B-09B7BEC375AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FF18A87A-EDBD-4978-932B-09B7BEC375AB}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="65">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,11 +287,22 @@
     <t xml:space="preserve"> 单一属性二分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>std_multi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampen_multi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +356,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -59213,15 +59227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>616227</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:colOff>594455</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
+      <xdr:colOff>375793</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>14673</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59250,14 +59264,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>549965</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>119270</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>10413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>172278</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>3787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59285,15 +59299,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>470452</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:colOff>503109</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>34075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>53008</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:colOff>85665</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>34076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59321,15 +59335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>649358</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>26504</xdr:rowOff>
+      <xdr:colOff>682015</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>91818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>437322</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>19877</xdr:rowOff>
+      <xdr:colOff>469979</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59357,15 +59371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>311425</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>145775</xdr:rowOff>
+      <xdr:colOff>398511</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>36918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>576469</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53955</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>23665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59393,15 +59407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>291547</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
+      <xdr:colOff>422176</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>167073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>583095</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>119270</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104124</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>173699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59429,15 +59443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>337930</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:colOff>294387</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>122108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>225287</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:colOff>181744</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>122109</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59465,15 +59479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>159026</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>159026</xdr:rowOff>
+      <xdr:colOff>311426</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>104598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>477079</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59501,15 +59515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>251791</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>139145</xdr:rowOff>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>52059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>530087</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>125894</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>38808</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59537,15 +59551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>602974</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>59635</xdr:rowOff>
+      <xdr:colOff>548545</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>81407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>450573</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>39757</xdr:rowOff>
+      <xdr:colOff>396144</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>61529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59573,15 +59587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>424068</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
+      <xdr:colOff>347868</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>151926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>225286</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:colOff>149086</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>132047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59608,16 +59622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>569841</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>139146</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134413</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>150032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>318050</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>145773</xdr:rowOff>
+      <xdr:colOff>492222</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>156659</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -59999,8 +60013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C288EA60-E85E-4F50-AD56-5F08D07FC275}">
   <dimension ref="D4:BO122"/>
   <sheetViews>
-    <sheetView topLeftCell="B93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110:AG122"/>
+    <sheetView topLeftCell="C100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W118" sqref="W118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -64115,10 +64129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E046D-2A4E-44AA-BD62-2184337D6835}">
-  <dimension ref="D1:AF181"/>
+  <dimension ref="D1:AF186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="D178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X185" sqref="X185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -64127,6 +64141,7 @@
     <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="21" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="24" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -64625,6 +64640,82 @@
         <v>0.76503600000000005</v>
       </c>
     </row>
+    <row r="75" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.99667000000000006</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.99875000000000003</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>63</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.99356</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.99748000000000003</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>63</v>
+      </c>
+      <c r="V75" s="2">
+        <v>1</v>
+      </c>
+      <c r="W75" s="1">
+        <v>1</v>
+      </c>
+      <c r="X75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.99124999999999996</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.98583299999999996</v>
+      </c>
+      <c r="M76" t="s">
+        <v>64</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.9823900000000001</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0.97454700000000005</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0.99208299999999994</v>
+      </c>
+      <c r="U76" t="s">
+        <v>64</v>
+      </c>
+      <c r="V76" s="2">
+        <v>1</v>
+      </c>
+      <c r="W76" s="1">
+        <v>1</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0.982124</v>
+      </c>
+    </row>
     <row r="97" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>62</v>
@@ -65062,6 +65153,82 @@
         <v>0.61037600000000003</v>
       </c>
     </row>
+    <row r="111" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.99792000000000003</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.99416700000000002</v>
+      </c>
+      <c r="M111" t="s">
+        <v>63</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0.99575999999999998</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0.98492999999999997</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0.99365599999999998</v>
+      </c>
+      <c r="U111" t="s">
+        <v>63</v>
+      </c>
+      <c r="V111" s="2">
+        <v>1</v>
+      </c>
+      <c r="W111" s="1">
+        <v>1</v>
+      </c>
+      <c r="X111" s="1">
+        <v>0.99496099999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.98541999999999996</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.97708299999999992</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.98083299999999995</v>
+      </c>
+      <c r="M112" t="s">
+        <v>64</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0.97614999999999996</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0.96813999999999989</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0.98189800000000005</v>
+      </c>
+      <c r="U112" t="s">
+        <v>64</v>
+      </c>
+      <c r="V112" s="2">
+        <v>0.99409000000000003</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0.98573599999999995</v>
+      </c>
+      <c r="X112" s="1">
+        <v>0.98063999999999996</v>
+      </c>
+    </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>62</v>
@@ -65461,7 +65628,7 @@
         <v>0.930871</v>
       </c>
     </row>
-    <row r="145" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>50</v>
       </c>
@@ -65498,6 +65665,98 @@
       <c r="X145" s="1">
         <v>0.70699400000000001</v>
       </c>
+    </row>
+    <row r="147" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>63</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0.98875000000000002</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.98291700000000004</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.97958299999999998</v>
+      </c>
+      <c r="M147" t="s">
+        <v>63</v>
+      </c>
+      <c r="N147" s="1">
+        <v>0.98960899999999996</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0.97795100000000001</v>
+      </c>
+      <c r="P147" s="1">
+        <v>0.98141099999999992</v>
+      </c>
+      <c r="U147" t="s">
+        <v>63</v>
+      </c>
+      <c r="V147" s="2">
+        <v>0.98730599999999991</v>
+      </c>
+      <c r="W147" s="3">
+        <v>98.728499999999997</v>
+      </c>
+      <c r="X147" s="3">
+        <v>97.761899999999997</v>
+      </c>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+    </row>
+    <row r="148" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>64</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.97624999999999995</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.97875000000000001</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.97708299999999992</v>
+      </c>
+      <c r="M148" t="s">
+        <v>64</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0.97001000000000004</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0.97569000000000006</v>
+      </c>
+      <c r="P148" s="1">
+        <v>0.97158299999999997</v>
+      </c>
+      <c r="U148" t="s">
+        <v>64</v>
+      </c>
+      <c r="V148" s="2">
+        <v>0.98203000000000007</v>
+      </c>
+      <c r="W148" s="3">
+        <v>98.17</v>
+      </c>
+      <c r="X148" s="3">
+        <v>98.255700000000004</v>
+      </c>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+    </row>
+    <row r="149" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+      <c r="Z149" s="3"/>
+    </row>
+    <row r="150" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
     </row>
     <row r="169" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
@@ -65746,7 +66005,7 @@
         <v>0.91386599999999996</v>
       </c>
     </row>
-    <row r="177" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
         <v>35</v>
       </c>
@@ -65784,7 +66043,7 @@
         <v>0.883822</v>
       </c>
     </row>
-    <row r="178" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
         <v>52</v>
       </c>
@@ -65822,7 +66081,7 @@
         <v>0.64661100000000005</v>
       </c>
     </row>
-    <row r="179" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>53</v>
       </c>
@@ -65860,7 +66119,7 @@
         <v>0.83352499999999996</v>
       </c>
     </row>
-    <row r="180" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>54</v>
       </c>
@@ -65898,7 +66157,7 @@
         <v>0.71299900000000005</v>
       </c>
     </row>
-    <row r="181" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>55</v>
       </c>
@@ -65935,6 +66194,96 @@
       <c r="X181" s="1">
         <v>0.56661399999999995</v>
       </c>
+    </row>
+    <row r="183" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>63</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0.97042000000000006</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0.96625000000000005</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0.96207999999999994</v>
+      </c>
+      <c r="M183" t="s">
+        <v>63</v>
+      </c>
+      <c r="N183" s="2">
+        <v>0.96912000000000009</v>
+      </c>
+      <c r="O183" s="1">
+        <v>0.97274400000000005</v>
+      </c>
+      <c r="P183" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="U183" t="s">
+        <v>63</v>
+      </c>
+      <c r="V183" s="3">
+        <v>97.119</v>
+      </c>
+      <c r="W183" s="3">
+        <v>95.968800000000002</v>
+      </c>
+      <c r="X183" s="3">
+        <v>95.734999999999999</v>
+      </c>
+      <c r="Y183" s="3"/>
+    </row>
+    <row r="184" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>64</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0.89457999999999993</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0.89541700000000002</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="M184" t="s">
+        <v>64</v>
+      </c>
+      <c r="N184" s="2">
+        <v>0.8853700000000001</v>
+      </c>
+      <c r="O184" s="1">
+        <v>0.92542900000000006</v>
+      </c>
+      <c r="P184" s="1">
+        <v>0.87347399999999997</v>
+      </c>
+      <c r="U184" t="s">
+        <v>64</v>
+      </c>
+      <c r="V184" s="3">
+        <v>90.424999999999997</v>
+      </c>
+      <c r="W184" s="3">
+        <v>86.507000000000005</v>
+      </c>
+      <c r="X184" s="3">
+        <v>86.7958</v>
+      </c>
+      <c r="Y184" s="3"/>
+    </row>
+    <row r="185" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="3"/>
+    </row>
+    <row r="186" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/结果/分类结果.xlsx
+++ b/结果/分类结果.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75177F8-18F3-44FD-94CD-80FA5DDEA8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5380D88-FCA0-48AF-9881-3B8E75C7CAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FF18A87A-EDBD-4978-932B-09B7BEC375AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{FF18A87A-EDBD-4978-932B-09B7BEC375AB}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
     <sheet name="KNN" sheetId="2" r:id="rId2"/>
     <sheet name="DT" sheetId="3" r:id="rId3"/>
     <sheet name="综合" sheetId="4" r:id="rId4"/>
+    <sheet name="与stacking方法对比" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="100">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +376,79 @@
     <t>样本熵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ACC(%)</t>
+  </si>
+  <si>
+    <t>SEN(%)</t>
+  </si>
+  <si>
+    <t>SPE(%)</t>
+  </si>
+  <si>
+    <t>A vs E</t>
+  </si>
+  <si>
+    <t>B vs E</t>
+  </si>
+  <si>
+    <t>C vs E</t>
+  </si>
+  <si>
+    <t>D vs E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>病例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chb01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>病例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chb03</t>
+    </r>
+  </si>
+  <si>
+    <t>病例chb01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例chb03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KNN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +472,25 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -414,12 +507,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -428,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +585,24 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31539,6 +31702,2087 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>标准差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$I$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$I$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D35B-49F8-906B-710B8116583C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$I$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$I$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97040000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D35B-49F8-906B-710B8116583C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$I$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$I$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96630000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D35B-49F8-906B-710B8116583C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$I$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$I$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96209999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D35B-49F8-906B-710B8116583C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="516661192"/>
+        <c:axId val="516667096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516661192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516667096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516667096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516661192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$Q$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89380000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18EA-4481-86E0-48EA9BCB6467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$P$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$Q$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89459999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18EA-4481-86E0-48EA9BCB6467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$P$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$Q$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89539999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18EA-4481-86E0-48EA9BCB6467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A vs E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B vs E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C vs E</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D vs E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$Q$26:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-18EA-4481-86E0-48EA9BCB6467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="560254856"/>
+        <c:axId val="560256824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560254856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560256824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560256824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560254856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>标准差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$G$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$61:$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$H$62:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98960000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-776D-4166-ACC4-44C9459A0F87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$61:$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$H$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-776D-4166-ACC4-44C9459A0F87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$G$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$61:$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$H$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.98060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96460000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-776D-4166-ACC4-44C9459A0F87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$G$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$H$61:$I$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$H$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.98540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-776D-4166-ACC4-44C9459A0F87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="432955416"/>
+        <c:axId val="432957384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="432955416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432957384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432957384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432955416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>样本熵</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$R$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stacking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$S$61:$T$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$S$62:$T$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.64580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61460000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F20-4E30-80EB-7204801C3BE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$R$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$S$61:$T$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$S$63:$T$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F20-4E30-80EB-7204801C3BE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$R$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$S$61:$T$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$S$64:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69579999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F20-4E30-80EB-7204801C3BE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>与stacking方法对比!$R$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>与stacking方法对比!$S$61:$T$61</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>病例chb01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>病例chb03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>与stacking方法对比!$S$65:$T$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64649999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7F20-4E30-80EB-7204801C3BE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="560252560"/>
+        <c:axId val="560247312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560252560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560247312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560247312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560252560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -35803,6 +38047,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors48.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -55118,6 +57522,2018 @@
 </file>
 
 <file path=xl/charts/style44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style48.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -59794,6 +64210,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A6ACA6-BA3D-4383-A5B2-EDE8927942A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2AD8A5-0E03-4371-BCC7-53BD14977F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0674263-DFB4-493F-B806-C653A315BEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2E0425-A81F-4875-AAB4-0CAC9C08883A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -64211,7 +68776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E046D-2A4E-44AA-BD62-2184337D6835}">
   <dimension ref="D1:AF259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P211" sqref="P211"/>
     </sheetView>
   </sheetViews>
@@ -66862,4 +71427,532 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38989B3-063E-436F-AACB-144159B265F0}">
+  <dimension ref="G11:U69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="8:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="8:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="8:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>100</v>
+      </c>
+      <c r="J14" s="7">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="7">
+        <v>99.38</v>
+      </c>
+      <c r="P14" s="7">
+        <v>98.63</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="8:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7">
+        <v>100</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="P15" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="8:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7">
+        <v>100</v>
+      </c>
+      <c r="J16" s="7">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7">
+        <v>100</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="7">
+        <v>96.88</v>
+      </c>
+      <c r="P16" s="7">
+        <v>95.89</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="17" spans="8:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="J17" s="7">
+        <v>98.61</v>
+      </c>
+      <c r="K17" s="7">
+        <v>98.86</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="7">
+        <v>89.38</v>
+      </c>
+      <c r="P17" s="7">
+        <v>93.65</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="P24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.9829</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="P25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.9788</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="P26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="54" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="7:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="7:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="4"/>
+      <c r="H56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="7:20" ht="28.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="7">
+        <v>100</v>
+      </c>
+      <c r="I57" s="7">
+        <v>100</v>
+      </c>
+      <c r="J57" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R57" s="7">
+        <v>64.58</v>
+      </c>
+      <c r="S57" s="7">
+        <v>62.22</v>
+      </c>
+      <c r="T57" s="7">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="58" spans="7:20" ht="28.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" s="7">
+        <v>98.96</v>
+      </c>
+      <c r="I58" s="7">
+        <v>100</v>
+      </c>
+      <c r="J58" s="7">
+        <v>98.08</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R58" s="7">
+        <v>61.46</v>
+      </c>
+      <c r="S58" s="7">
+        <v>57.41</v>
+      </c>
+      <c r="T58" s="7">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="61" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+      <c r="S61" t="s">
+        <v>96</v>
+      </c>
+      <c r="T61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="8">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="R62" t="s">
+        <v>68</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0.61460000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.9667</v>
+      </c>
+      <c r="R63" t="s">
+        <v>59</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0.6764</v>
+      </c>
+    </row>
+    <row r="64" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="R64" t="s">
+        <v>98</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0.69579999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="R65" t="s">
+        <v>99</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0.64649999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H68" s="8"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>